--- a/report_co_so/LONG XUYÊN 2024-06-01 - 2024-06-30.xlsx
+++ b/report_co_so/LONG XUYÊN 2024-06-01 - 2024-06-30.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="DOANH SỐ CÁ NHÂN" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +456,20 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Số lần phụ phẫu 2</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Doanh số thu nợ</t>
         </is>
@@ -477,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18600000</v>
+        <v>16300000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -489,6 +500,12 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>2000000</v>
       </c>
     </row>
@@ -519,6 +536,12 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -547,6 +570,12 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -570,9 +599,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J5" t="n">
         <v>15700000</v>
       </c>
     </row>
@@ -603,6 +638,12 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -626,9 +667,15 @@
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>33800000</v>
+        <v>36100000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -658,6 +705,46 @@
       </c>
       <c r="H8" t="n">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>121400000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>115400000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>550000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>17700000</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +795,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18723000</v>
+        <v>23422000</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +835,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10760000</v>
+        <v>16760000</v>
       </c>
     </row>
     <row r="8">
@@ -768,7 +855,696 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49859000</v>
+        <v>60558000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Số lượng đơn</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06-02-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6590000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06-04-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06-06-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>730000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06-07-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06-09-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06-10-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>06-11-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2330000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06-12-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1266000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>06-13-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3050000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06-14-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>06-16-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>06-17-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>06-18-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06-19-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18376000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>06-20-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>700000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1584000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06-21-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>06-22-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8900000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8900000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06-23-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06-24-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4749000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>06-25-2024</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06-26-2024</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>06-27-2024</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11100000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11100000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2187000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>06-29-2024</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13758000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>127500000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>104000000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17700000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>60558000</v>
       </c>
     </row>
   </sheetData>
